--- a/maze.xlsx
+++ b/maze.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henry\Documents\GitHub\raycasting-engine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9BEE17E-46E5-456F-98E3-3473E9CF912F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE51B24-614E-40AF-AF62-66806CB63D08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,12 +100,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2039" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2336" uniqueCount="5">
   <si>
     <t>X</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
 </sst>
 </file>
@@ -147,7 +156,37 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -163,9 +202,56 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -451,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BI61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AW26" sqref="AW26"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,8 +547,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
+      <c r="A1">
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -480,7 +566,7 @@
         <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H1" t="s">
         <v>0</v>
@@ -522,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="U1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V1" t="s">
         <v>0</v>
@@ -540,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="AA1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB1" t="s">
         <v>0</v>
@@ -552,7 +638,7 @@
         <v>0</v>
       </c>
       <c r="AE1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF1" t="s">
         <v>0</v>
@@ -570,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="AK1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL1" t="s">
         <v>0</v>
@@ -582,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="AO1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP1" t="s">
         <v>0</v>
       </c>
       <c r="AQ1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR1" t="s">
         <v>0</v>
@@ -618,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="BA1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB1" t="s">
         <v>0</v>
@@ -636,13 +722,13 @@
         <v>0</v>
       </c>
       <c r="BG1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH1" t="s">
         <v>0</v>
       </c>
-      <c r="BI1" t="s">
-        <v>0</v>
+      <c r="BI1">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:61" x14ac:dyDescent="0.25">
@@ -832,7 +918,7 @@
     </row>
     <row r="3" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -844,31 +930,31 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" t="s">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" t="s">
         <v>1</v>
       </c>
-      <c r="K3">
-        <v>1</v>
+      <c r="K3" t="s">
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
-      <c r="M3">
-        <v>1</v>
+      <c r="M3" t="s">
+        <v>2</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -880,31 +966,31 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R3" t="s">
         <v>1</v>
       </c>
-      <c r="S3">
-        <v>1</v>
+      <c r="S3" t="s">
+        <v>3</v>
       </c>
       <c r="T3" t="s">
         <v>1</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V3">
         <v>1</v>
       </c>
-      <c r="W3">
-        <v>1</v>
+      <c r="W3" t="s">
+        <v>3</v>
       </c>
       <c r="X3" t="s">
         <v>1</v>
       </c>
-      <c r="Y3">
-        <v>1</v>
+      <c r="Y3" t="s">
+        <v>3</v>
       </c>
       <c r="Z3" t="s">
         <v>1</v>
@@ -915,38 +1001,38 @@
       <c r="AB3" t="s">
         <v>1</v>
       </c>
-      <c r="AC3">
-        <v>1</v>
+      <c r="AC3" t="s">
+        <v>3</v>
       </c>
       <c r="AD3" t="s">
         <v>1</v>
       </c>
       <c r="AE3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF3">
         <v>1</v>
       </c>
-      <c r="AG3">
-        <v>1</v>
+      <c r="AG3" t="s">
+        <v>3</v>
       </c>
       <c r="AH3" t="s">
         <v>1</v>
       </c>
-      <c r="AI3">
-        <v>1</v>
+      <c r="AI3" t="s">
+        <v>3</v>
       </c>
       <c r="AJ3" t="s">
         <v>1</v>
       </c>
-      <c r="AK3">
-        <v>1</v>
+      <c r="AK3" t="s">
+        <v>3</v>
       </c>
       <c r="AL3" t="s">
         <v>1</v>
       </c>
-      <c r="AM3">
-        <v>1</v>
+      <c r="AM3" t="s">
+        <v>3</v>
       </c>
       <c r="AN3" t="s">
         <v>1</v>
@@ -957,14 +1043,14 @@
       <c r="AP3" t="s">
         <v>1</v>
       </c>
-      <c r="AQ3">
-        <v>1</v>
+      <c r="AQ3" t="s">
+        <v>3</v>
       </c>
       <c r="AR3" t="s">
         <v>1</v>
       </c>
       <c r="AS3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT3">
         <v>1</v>
@@ -975,32 +1061,32 @@
       <c r="AV3">
         <v>1</v>
       </c>
-      <c r="AW3">
-        <v>1</v>
+      <c r="AW3" t="s">
+        <v>3</v>
       </c>
       <c r="AX3" t="s">
         <v>1</v>
       </c>
-      <c r="AY3">
-        <v>1</v>
+      <c r="AY3" t="s">
+        <v>3</v>
       </c>
       <c r="AZ3" t="s">
         <v>1</v>
       </c>
-      <c r="BA3">
-        <v>1</v>
+      <c r="BA3" t="s">
+        <v>3</v>
       </c>
       <c r="BB3" t="s">
         <v>1</v>
       </c>
       <c r="BC3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD3">
         <v>1</v>
       </c>
       <c r="BE3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF3" t="s">
         <v>1</v>
@@ -1208,31 +1294,31 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5">
-        <v>1</v>
+      <c r="E5" t="s">
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" t="s">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5" t="s">
         <v>1</v>
@@ -1243,14 +1329,14 @@
       <c r="N5" t="s">
         <v>1</v>
       </c>
-      <c r="O5">
-        <v>1</v>
+      <c r="O5" t="s">
+        <v>3</v>
       </c>
       <c r="P5" t="s">
         <v>1</v>
       </c>
-      <c r="Q5">
-        <v>1</v>
+      <c r="Q5" t="s">
+        <v>3</v>
       </c>
       <c r="R5" t="s">
         <v>1</v>
@@ -1262,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="U5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V5">
         <v>1</v>
@@ -1273,8 +1359,8 @@
       <c r="X5">
         <v>1</v>
       </c>
-      <c r="Y5">
-        <v>1</v>
+      <c r="Y5" t="s">
+        <v>2</v>
       </c>
       <c r="Z5" t="s">
         <v>1</v>
@@ -1285,8 +1371,8 @@
       <c r="AB5" t="s">
         <v>1</v>
       </c>
-      <c r="AC5">
-        <v>1</v>
+      <c r="AC5" t="s">
+        <v>2</v>
       </c>
       <c r="AD5">
         <v>1</v>
@@ -1303,8 +1389,8 @@
       <c r="AH5">
         <v>1</v>
       </c>
-      <c r="AI5">
-        <v>1</v>
+      <c r="AI5" t="s">
+        <v>4</v>
       </c>
       <c r="AJ5">
         <v>1</v>
@@ -1315,14 +1401,14 @@
       <c r="AL5">
         <v>1</v>
       </c>
-      <c r="AM5">
-        <v>1</v>
+      <c r="AM5" t="s">
+        <v>2</v>
       </c>
       <c r="AN5" t="s">
         <v>1</v>
       </c>
       <c r="AO5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP5">
         <v>1</v>
@@ -1334,13 +1420,13 @@
         <v>1</v>
       </c>
       <c r="AS5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT5" t="s">
         <v>1</v>
       </c>
       <c r="AU5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV5">
         <v>1</v>
@@ -1351,8 +1437,8 @@
       <c r="AX5">
         <v>1</v>
       </c>
-      <c r="AY5">
-        <v>1</v>
+      <c r="AY5" t="s">
+        <v>2</v>
       </c>
       <c r="AZ5">
         <v>1</v>
@@ -1364,7 +1450,7 @@
         <v>1</v>
       </c>
       <c r="BC5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD5" t="s">
         <v>1</v>
@@ -1583,20 +1669,20 @@
       <c r="D7" t="s">
         <v>1</v>
       </c>
-      <c r="E7">
-        <v>1</v>
+      <c r="E7" t="s">
+        <v>3</v>
       </c>
       <c r="F7" t="s">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" t="s">
         <v>1</v>
@@ -1614,7 +1700,7 @@
         <v>1</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P7">
         <v>1</v>
@@ -1625,8 +1711,8 @@
       <c r="R7">
         <v>1</v>
       </c>
-      <c r="S7">
-        <v>1</v>
+      <c r="S7" t="s">
+        <v>2</v>
       </c>
       <c r="T7" t="s">
         <v>1</v>
@@ -1637,8 +1723,8 @@
       <c r="V7" t="s">
         <v>1</v>
       </c>
-      <c r="W7">
-        <v>1</v>
+      <c r="W7" t="s">
+        <v>3</v>
       </c>
       <c r="X7" t="s">
         <v>1</v>
@@ -1650,13 +1736,13 @@
         <v>1</v>
       </c>
       <c r="AA7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB7">
         <v>1</v>
       </c>
-      <c r="AC7">
-        <v>1</v>
+      <c r="AC7" t="s">
+        <v>2</v>
       </c>
       <c r="AD7">
         <v>1</v>
@@ -1668,7 +1754,7 @@
         <v>1</v>
       </c>
       <c r="AG7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH7" t="s">
         <v>1</v>
@@ -1679,20 +1765,20 @@
       <c r="AJ7" t="s">
         <v>1</v>
       </c>
-      <c r="AK7">
-        <v>1</v>
+      <c r="AK7" t="s">
+        <v>3</v>
       </c>
       <c r="AL7" t="s">
         <v>1</v>
       </c>
       <c r="AM7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN7">
         <v>1</v>
       </c>
-      <c r="AO7">
-        <v>1</v>
+      <c r="AO7" t="s">
+        <v>2</v>
       </c>
       <c r="AP7">
         <v>1</v>
@@ -1703,20 +1789,20 @@
       <c r="AR7">
         <v>1</v>
       </c>
-      <c r="AS7">
-        <v>1</v>
+      <c r="AS7" t="s">
+        <v>2</v>
       </c>
       <c r="AT7">
         <v>1</v>
       </c>
       <c r="AU7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV7" t="s">
         <v>1</v>
       </c>
       <c r="AW7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX7">
         <v>1</v>
@@ -1734,7 +1820,7 @@
         <v>1</v>
       </c>
       <c r="BC7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD7" t="s">
         <v>1</v>
@@ -1745,8 +1831,8 @@
       <c r="BF7" t="s">
         <v>1</v>
       </c>
-      <c r="BG7">
-        <v>1</v>
+      <c r="BG7" t="s">
+        <v>3</v>
       </c>
       <c r="BH7" t="s">
         <v>1</v>
@@ -1954,13 +2040,13 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" t="s">
         <v>1</v>
@@ -1971,26 +2057,26 @@
       <c r="J9" t="s">
         <v>1</v>
       </c>
-      <c r="K9">
-        <v>1</v>
+      <c r="K9" t="s">
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
-      <c r="M9">
-        <v>1</v>
+      <c r="M9" t="s">
+        <v>2</v>
       </c>
       <c r="N9">
         <v>1</v>
       </c>
-      <c r="O9">
-        <v>1</v>
+      <c r="O9" t="s">
+        <v>2</v>
       </c>
       <c r="P9">
         <v>1</v>
       </c>
-      <c r="Q9">
-        <v>1</v>
+      <c r="Q9" t="s">
+        <v>3</v>
       </c>
       <c r="R9" t="s">
         <v>1</v>
@@ -2013,26 +2099,26 @@
       <c r="X9" t="s">
         <v>1</v>
       </c>
-      <c r="Y9">
-        <v>1</v>
+      <c r="Y9" t="s">
+        <v>2</v>
       </c>
       <c r="Z9">
         <v>1</v>
       </c>
       <c r="AA9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB9" t="s">
         <v>1</v>
       </c>
-      <c r="AC9">
-        <v>1</v>
+      <c r="AC9" t="s">
+        <v>3</v>
       </c>
       <c r="AD9">
         <v>1</v>
       </c>
       <c r="AE9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF9" t="s">
         <v>1</v>
@@ -2044,31 +2130,31 @@
         <v>1</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ9">
         <v>1</v>
       </c>
       <c r="AK9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL9" t="s">
         <v>1</v>
       </c>
-      <c r="AM9">
-        <v>1</v>
+      <c r="AM9" t="s">
+        <v>3</v>
       </c>
       <c r="AN9" t="s">
         <v>1</v>
       </c>
       <c r="AO9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP9">
         <v>1</v>
       </c>
-      <c r="AQ9">
-        <v>1</v>
+      <c r="AQ9" t="s">
+        <v>3</v>
       </c>
       <c r="AR9" t="s">
         <v>1</v>
@@ -2079,44 +2165,44 @@
       <c r="AT9" t="s">
         <v>1</v>
       </c>
-      <c r="AU9">
-        <v>1</v>
+      <c r="AU9" t="s">
+        <v>3</v>
       </c>
       <c r="AV9">
         <v>1</v>
       </c>
-      <c r="AW9">
-        <v>1</v>
+      <c r="AW9" t="s">
+        <v>2</v>
       </c>
       <c r="AX9">
         <v>1</v>
       </c>
-      <c r="AY9">
-        <v>1</v>
+      <c r="AY9" t="s">
+        <v>3</v>
       </c>
       <c r="AZ9" t="s">
         <v>1</v>
       </c>
       <c r="BA9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB9">
         <v>1</v>
       </c>
       <c r="BC9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD9" t="s">
         <v>1</v>
       </c>
-      <c r="BE9">
-        <v>1</v>
+      <c r="BE9" t="s">
+        <v>2</v>
       </c>
       <c r="BF9">
         <v>1</v>
       </c>
       <c r="BG9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BH9" t="s">
         <v>1</v>
@@ -2174,9 +2260,6 @@
       <c r="P10" t="s">
         <v>1</v>
       </c>
-      <c r="Q10" t="s">
-        <v>1</v>
-      </c>
       <c r="R10" t="s">
         <v>1</v>
       </c>
@@ -2317,20 +2400,20 @@
       <c r="B11" t="s">
         <v>1</v>
       </c>
-      <c r="C11">
-        <v>1</v>
+      <c r="C11" t="s">
+        <v>3</v>
       </c>
       <c r="D11" t="s">
         <v>1</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" t="s">
         <v>1</v>
@@ -2341,14 +2424,14 @@
       <c r="J11" t="s">
         <v>1</v>
       </c>
-      <c r="K11">
-        <v>1</v>
+      <c r="K11" t="s">
+        <v>3</v>
       </c>
       <c r="L11" t="s">
         <v>1</v>
       </c>
-      <c r="M11">
-        <v>1</v>
+      <c r="M11" t="s">
+        <v>3</v>
       </c>
       <c r="N11" t="s">
         <v>1</v>
@@ -2360,13 +2443,13 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R11">
         <v>1</v>
       </c>
       <c r="S11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T11" t="s">
         <v>1</v>
@@ -2383,26 +2466,26 @@
       <c r="X11" t="s">
         <v>1</v>
       </c>
-      <c r="Y11">
-        <v>1</v>
+      <c r="Y11" t="s">
+        <v>3</v>
       </c>
       <c r="Z11" t="s">
         <v>1</v>
       </c>
       <c r="AA11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB11">
         <v>1</v>
       </c>
-      <c r="AC11">
-        <v>1</v>
+      <c r="AC11" t="s">
+        <v>2</v>
       </c>
       <c r="AD11">
         <v>1</v>
       </c>
       <c r="AE11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF11" t="s">
         <v>1</v>
@@ -2419,14 +2502,14 @@
       <c r="AJ11" t="s">
         <v>1</v>
       </c>
-      <c r="AK11">
-        <v>1</v>
+      <c r="AK11" t="s">
+        <v>3</v>
       </c>
       <c r="AL11">
         <v>1</v>
       </c>
-      <c r="AM11">
-        <v>1</v>
+      <c r="AM11" t="s">
+        <v>2</v>
       </c>
       <c r="AN11">
         <v>1</v>
@@ -2443,8 +2526,8 @@
       <c r="AR11">
         <v>1</v>
       </c>
-      <c r="AS11">
-        <v>1</v>
+      <c r="AS11" t="s">
+        <v>2</v>
       </c>
       <c r="AT11">
         <v>1</v>
@@ -2455,14 +2538,14 @@
       <c r="AV11">
         <v>1</v>
       </c>
-      <c r="AW11">
-        <v>1</v>
+      <c r="AW11" t="s">
+        <v>2</v>
       </c>
       <c r="AX11">
         <v>1</v>
       </c>
-      <c r="AY11">
-        <v>1</v>
+      <c r="AY11" t="s">
+        <v>3</v>
       </c>
       <c r="AZ11" t="s">
         <v>1</v>
@@ -2473,14 +2556,14 @@
       <c r="BB11" t="s">
         <v>1</v>
       </c>
-      <c r="BC11">
-        <v>1</v>
+      <c r="BC11" t="s">
+        <v>3</v>
       </c>
       <c r="BD11" t="s">
         <v>1</v>
       </c>
-      <c r="BE11">
-        <v>1</v>
+      <c r="BE11" t="s">
+        <v>3</v>
       </c>
       <c r="BF11" t="s">
         <v>1</v>
@@ -2688,37 +2771,37 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="E13">
-        <v>1</v>
+      <c r="E13" t="s">
+        <v>2</v>
       </c>
       <c r="F13" t="s">
         <v>1</v>
       </c>
-      <c r="G13">
-        <v>1</v>
+      <c r="G13" t="s">
+        <v>3</v>
       </c>
       <c r="H13" t="s">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
-      <c r="K13">
-        <v>1</v>
+      <c r="K13" t="s">
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
-      <c r="M13">
-        <v>1</v>
+      <c r="M13" t="s">
+        <v>2</v>
       </c>
       <c r="N13" t="s">
         <v>1</v>
@@ -2730,7 +2813,7 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R13">
         <v>1</v>
@@ -2741,14 +2824,14 @@
       <c r="T13">
         <v>1</v>
       </c>
-      <c r="U13">
-        <v>1</v>
+      <c r="U13" t="s">
+        <v>2</v>
       </c>
       <c r="V13" t="s">
         <v>1</v>
       </c>
       <c r="W13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X13">
         <v>1</v>
@@ -2760,7 +2843,7 @@
         <v>1</v>
       </c>
       <c r="AA13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB13" t="s">
         <v>1</v>
@@ -2771,26 +2854,26 @@
       <c r="AD13" t="s">
         <v>1</v>
       </c>
-      <c r="AE13">
-        <v>1</v>
+      <c r="AE13" t="s">
+        <v>3</v>
       </c>
       <c r="AF13">
         <v>1</v>
       </c>
-      <c r="AG13">
-        <v>1</v>
+      <c r="AG13" t="s">
+        <v>2</v>
       </c>
       <c r="AH13" t="s">
         <v>1</v>
       </c>
       <c r="AI13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ13">
         <v>1</v>
       </c>
-      <c r="AK13">
-        <v>1</v>
+      <c r="AK13" t="s">
+        <v>2</v>
       </c>
       <c r="AL13">
         <v>1</v>
@@ -2801,8 +2884,8 @@
       <c r="AN13">
         <v>1</v>
       </c>
-      <c r="AO13">
-        <v>1</v>
+      <c r="AO13" t="s">
+        <v>2</v>
       </c>
       <c r="AP13">
         <v>1</v>
@@ -2814,37 +2897,37 @@
         <v>1</v>
       </c>
       <c r="AS13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT13" t="s">
         <v>1</v>
       </c>
-      <c r="AU13">
-        <v>1</v>
+      <c r="AU13" t="s">
+        <v>3</v>
       </c>
       <c r="AV13">
         <v>1</v>
       </c>
       <c r="AW13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX13" t="s">
         <v>1</v>
       </c>
       <c r="AY13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ13">
         <v>1</v>
       </c>
       <c r="BA13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB13" t="s">
         <v>1</v>
       </c>
-      <c r="BC13">
-        <v>1</v>
+      <c r="BC13" t="s">
+        <v>2</v>
       </c>
       <c r="BD13">
         <v>1</v>
@@ -2856,7 +2939,7 @@
         <v>1</v>
       </c>
       <c r="BG13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BH13" t="s">
         <v>1</v>
@@ -3057,8 +3140,8 @@
       <c r="B15" t="s">
         <v>1</v>
       </c>
-      <c r="C15">
-        <v>1</v>
+      <c r="C15" t="s">
+        <v>3</v>
       </c>
       <c r="D15" t="s">
         <v>1</v>
@@ -3069,14 +3152,14 @@
       <c r="F15" t="s">
         <v>1</v>
       </c>
-      <c r="G15">
-        <v>1</v>
+      <c r="G15" t="s">
+        <v>2</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" t="s">
         <v>1</v>
@@ -3094,7 +3177,7 @@
         <v>1</v>
       </c>
       <c r="O15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P15">
         <v>1</v>
@@ -3106,13 +3189,13 @@
         <v>1</v>
       </c>
       <c r="S15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T15" t="s">
         <v>1</v>
       </c>
       <c r="U15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V15">
         <v>1</v>
@@ -3129,32 +3212,32 @@
       <c r="Z15">
         <v>1</v>
       </c>
-      <c r="AA15">
-        <v>1</v>
+      <c r="AA15" t="s">
+        <v>3</v>
       </c>
       <c r="AB15" t="s">
         <v>1</v>
       </c>
       <c r="AC15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD15">
         <v>1</v>
       </c>
       <c r="AE15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF15" t="s">
         <v>1</v>
       </c>
       <c r="AG15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH15">
         <v>1</v>
       </c>
       <c r="AI15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ15" t="s">
         <v>1</v>
@@ -3165,32 +3248,32 @@
       <c r="AL15" t="s">
         <v>1</v>
       </c>
-      <c r="AM15">
-        <v>1</v>
+      <c r="AM15" t="s">
+        <v>3</v>
       </c>
       <c r="AN15" t="s">
         <v>1</v>
       </c>
-      <c r="AO15">
-        <v>1</v>
+      <c r="AO15" t="s">
+        <v>3</v>
       </c>
       <c r="AP15" t="s">
         <v>1</v>
       </c>
-      <c r="AQ15">
-        <v>1</v>
+      <c r="AQ15" t="s">
+        <v>3</v>
       </c>
       <c r="AR15" t="s">
         <v>1</v>
       </c>
       <c r="AS15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT15">
         <v>1</v>
       </c>
-      <c r="AU15">
-        <v>1</v>
+      <c r="AU15" t="s">
+        <v>2</v>
       </c>
       <c r="AV15">
         <v>1</v>
@@ -3201,26 +3284,26 @@
       <c r="AX15">
         <v>1</v>
       </c>
-      <c r="AY15">
-        <v>1</v>
+      <c r="AY15" t="s">
+        <v>2</v>
       </c>
       <c r="AZ15" t="s">
         <v>1</v>
       </c>
-      <c r="BA15">
-        <v>1</v>
+      <c r="BA15" t="s">
+        <v>3</v>
       </c>
       <c r="BB15">
         <v>1</v>
       </c>
       <c r="BC15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD15" t="s">
         <v>1</v>
       </c>
       <c r="BE15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF15">
         <v>1</v>
@@ -3232,7 +3315,7 @@
         <v>1</v>
       </c>
       <c r="BI15" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:61" x14ac:dyDescent="0.25">
@@ -3428,13 +3511,13 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" t="s">
         <v>1</v>
@@ -3451,26 +3534,26 @@
       <c r="J17" t="s">
         <v>1</v>
       </c>
-      <c r="K17">
-        <v>1</v>
+      <c r="K17" t="s">
+        <v>3</v>
       </c>
       <c r="L17" t="s">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N17">
         <v>1</v>
       </c>
-      <c r="O17">
-        <v>1</v>
+      <c r="O17" t="s">
+        <v>2</v>
       </c>
       <c r="P17">
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R17" t="s">
         <v>1</v>
@@ -3481,14 +3564,14 @@
       <c r="T17" t="s">
         <v>1</v>
       </c>
-      <c r="U17">
-        <v>1</v>
+      <c r="U17" t="s">
+        <v>3</v>
       </c>
       <c r="V17">
         <v>1</v>
       </c>
-      <c r="W17">
-        <v>1</v>
+      <c r="W17" t="s">
+        <v>2</v>
       </c>
       <c r="X17">
         <v>1</v>
@@ -3506,19 +3589,19 @@
         <v>1</v>
       </c>
       <c r="AC17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD17" t="s">
         <v>1</v>
       </c>
       <c r="AE17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF17">
         <v>1</v>
       </c>
       <c r="AG17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH17" t="s">
         <v>1</v>
@@ -3530,13 +3613,13 @@
         <v>1</v>
       </c>
       <c r="AK17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL17">
         <v>1</v>
       </c>
-      <c r="AM17">
-        <v>1</v>
+      <c r="AM17" t="s">
+        <v>2</v>
       </c>
       <c r="AN17">
         <v>1</v>
@@ -3547,14 +3630,14 @@
       <c r="AP17">
         <v>1</v>
       </c>
-      <c r="AQ17">
-        <v>1</v>
+      <c r="AQ17" t="s">
+        <v>2</v>
       </c>
       <c r="AR17" t="s">
         <v>1</v>
       </c>
-      <c r="AS17">
-        <v>1</v>
+      <c r="AS17" t="s">
+        <v>3</v>
       </c>
       <c r="AT17" t="s">
         <v>1</v>
@@ -3565,20 +3648,20 @@
       <c r="AV17" t="s">
         <v>1</v>
       </c>
-      <c r="AW17">
-        <v>1</v>
+      <c r="AW17" t="s">
+        <v>3</v>
       </c>
       <c r="AX17" t="s">
         <v>1</v>
       </c>
       <c r="AY17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ17">
         <v>1</v>
       </c>
-      <c r="BA17">
-        <v>1</v>
+      <c r="BA17" t="s">
+        <v>2</v>
       </c>
       <c r="BB17">
         <v>1</v>
@@ -3589,14 +3672,14 @@
       <c r="BD17">
         <v>1</v>
       </c>
-      <c r="BE17">
-        <v>1</v>
+      <c r="BE17" t="s">
+        <v>2</v>
       </c>
       <c r="BF17">
         <v>1</v>
       </c>
       <c r="BG17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BH17" t="s">
         <v>1</v>
@@ -3792,31 +3875,31 @@
     </row>
     <row r="19" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" t="s">
         <v>1</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
-      <c r="G19">
-        <v>1</v>
+      <c r="G19" t="s">
+        <v>2</v>
       </c>
       <c r="H19" t="s">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -3827,14 +3910,14 @@
       <c r="L19">
         <v>1</v>
       </c>
-      <c r="M19">
-        <v>1</v>
+      <c r="M19" t="s">
+        <v>3</v>
       </c>
       <c r="N19" t="s">
         <v>1</v>
       </c>
-      <c r="O19">
-        <v>1</v>
+      <c r="O19" t="s">
+        <v>3</v>
       </c>
       <c r="P19" t="s">
         <v>1</v>
@@ -3846,37 +3929,37 @@
         <v>1</v>
       </c>
       <c r="S19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T19">
         <v>1</v>
       </c>
-      <c r="U19">
-        <v>1</v>
+      <c r="U19" t="s">
+        <v>2</v>
       </c>
       <c r="V19">
         <v>1</v>
       </c>
       <c r="W19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X19" t="s">
         <v>1</v>
       </c>
       <c r="Y19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z19">
         <v>1</v>
       </c>
       <c r="AA19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB19" t="s">
         <v>1</v>
       </c>
       <c r="AC19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD19">
         <v>1</v>
@@ -3888,13 +3971,13 @@
         <v>1</v>
       </c>
       <c r="AG19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH19" t="s">
         <v>1</v>
       </c>
       <c r="AI19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ19">
         <v>1</v>
@@ -3912,13 +3995,13 @@
         <v>1</v>
       </c>
       <c r="AO19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP19" t="s">
         <v>1</v>
       </c>
-      <c r="AQ19">
-        <v>1</v>
+      <c r="AQ19" t="s">
+        <v>3</v>
       </c>
       <c r="AR19" t="s">
         <v>1</v>
@@ -3936,31 +4019,31 @@
         <v>1</v>
       </c>
       <c r="AW19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX19">
         <v>1</v>
       </c>
       <c r="AY19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ19" t="s">
         <v>1</v>
       </c>
-      <c r="BA19">
-        <v>1</v>
+      <c r="BA19" t="s">
+        <v>3</v>
       </c>
       <c r="BB19" t="s">
         <v>1</v>
       </c>
       <c r="BC19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD19">
         <v>1</v>
       </c>
       <c r="BE19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF19" t="s">
         <v>1</v>
@@ -4168,31 +4251,31 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" t="s">
         <v>1</v>
       </c>
-      <c r="G21">
-        <v>1</v>
+      <c r="G21" t="s">
+        <v>3</v>
       </c>
       <c r="H21" t="s">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21">
         <v>1</v>
       </c>
-      <c r="K21">
-        <v>1</v>
+      <c r="K21" t="s">
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -4204,49 +4287,49 @@
         <v>1</v>
       </c>
       <c r="O21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P21" t="s">
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R21">
         <v>1</v>
       </c>
       <c r="S21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T21" t="s">
         <v>1</v>
       </c>
-      <c r="U21">
-        <v>1</v>
+      <c r="U21" t="s">
+        <v>3</v>
       </c>
       <c r="V21" t="s">
         <v>1</v>
       </c>
       <c r="W21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X21">
         <v>1</v>
       </c>
       <c r="Y21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z21" t="s">
         <v>1</v>
       </c>
       <c r="AA21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB21">
         <v>1</v>
       </c>
-      <c r="AC21">
-        <v>1</v>
+      <c r="AC21" t="s">
+        <v>2</v>
       </c>
       <c r="AD21">
         <v>1</v>
@@ -4264,25 +4347,25 @@
         <v>1</v>
       </c>
       <c r="AI21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ21" t="s">
         <v>1</v>
       </c>
-      <c r="AK21">
-        <v>1</v>
+      <c r="AK21" t="s">
+        <v>3</v>
       </c>
       <c r="AL21" t="s">
         <v>1</v>
       </c>
-      <c r="AM21">
-        <v>1</v>
+      <c r="AM21" t="s">
+        <v>3</v>
       </c>
       <c r="AN21">
         <v>1</v>
       </c>
-      <c r="AO21">
-        <v>1</v>
+      <c r="AO21" t="s">
+        <v>2</v>
       </c>
       <c r="AP21">
         <v>1</v>
@@ -4293,8 +4376,8 @@
       <c r="AR21">
         <v>1</v>
       </c>
-      <c r="AS21">
-        <v>1</v>
+      <c r="AS21" t="s">
+        <v>2</v>
       </c>
       <c r="AT21" t="s">
         <v>1</v>
@@ -4305,14 +4388,14 @@
       <c r="AV21" t="s">
         <v>1</v>
       </c>
-      <c r="AW21">
-        <v>1</v>
+      <c r="AW21" t="s">
+        <v>3</v>
       </c>
       <c r="AX21" t="s">
         <v>1</v>
       </c>
-      <c r="AY21">
-        <v>1</v>
+      <c r="AY21" t="s">
+        <v>2</v>
       </c>
       <c r="AZ21">
         <v>1</v>
@@ -4323,20 +4406,20 @@
       <c r="BB21">
         <v>1</v>
       </c>
-      <c r="BC21">
-        <v>1</v>
+      <c r="BC21" t="s">
+        <v>2</v>
       </c>
       <c r="BD21" t="s">
         <v>1</v>
       </c>
-      <c r="BE21">
-        <v>1</v>
+      <c r="BE21" t="s">
+        <v>3</v>
       </c>
       <c r="BF21" t="s">
         <v>1</v>
       </c>
-      <c r="BG21">
-        <v>1</v>
+      <c r="BG21" t="s">
+        <v>3</v>
       </c>
       <c r="BH21" t="s">
         <v>1</v>
@@ -4543,8 +4626,8 @@
       <c r="D23" t="s">
         <v>1</v>
       </c>
-      <c r="E23">
-        <v>1</v>
+      <c r="E23" t="s">
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -4556,7 +4639,7 @@
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J23" t="s">
         <v>1</v>
@@ -4567,14 +4650,14 @@
       <c r="L23" t="s">
         <v>1</v>
       </c>
-      <c r="M23">
-        <v>1</v>
+      <c r="M23" t="s">
+        <v>3</v>
       </c>
       <c r="N23" t="s">
         <v>1</v>
       </c>
       <c r="O23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P23">
         <v>1</v>
@@ -4585,8 +4668,8 @@
       <c r="R23">
         <v>1</v>
       </c>
-      <c r="S23">
-        <v>1</v>
+      <c r="S23" t="s">
+        <v>2</v>
       </c>
       <c r="T23">
         <v>1</v>
@@ -4597,38 +4680,38 @@
       <c r="V23">
         <v>1</v>
       </c>
-      <c r="W23">
-        <v>1</v>
+      <c r="W23" t="s">
+        <v>2</v>
       </c>
       <c r="X23" t="s">
         <v>1</v>
       </c>
-      <c r="Y23">
-        <v>1</v>
+      <c r="Y23" t="s">
+        <v>3</v>
       </c>
       <c r="Z23" t="s">
         <v>1</v>
       </c>
       <c r="AA23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB23">
         <v>1</v>
       </c>
       <c r="AC23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD23" t="s">
         <v>1</v>
       </c>
       <c r="AE23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF23">
         <v>1</v>
       </c>
-      <c r="AG23">
-        <v>1</v>
+      <c r="AG23" t="s">
+        <v>2</v>
       </c>
       <c r="AH23">
         <v>1</v>
@@ -4639,32 +4722,32 @@
       <c r="AJ23">
         <v>1</v>
       </c>
-      <c r="AK23">
-        <v>1</v>
+      <c r="AK23" t="s">
+        <v>2</v>
       </c>
       <c r="AL23" t="s">
         <v>1</v>
       </c>
       <c r="AM23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN23">
         <v>1</v>
       </c>
-      <c r="AO23">
-        <v>1</v>
+      <c r="AO23" t="s">
+        <v>3</v>
       </c>
       <c r="AP23" t="s">
         <v>1</v>
       </c>
       <c r="AQ23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR23">
         <v>1</v>
       </c>
       <c r="AS23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT23" t="s">
         <v>1</v>
@@ -4681,32 +4764,32 @@
       <c r="AX23" t="s">
         <v>1</v>
       </c>
-      <c r="AY23">
-        <v>1</v>
+      <c r="AY23" t="s">
+        <v>3</v>
       </c>
       <c r="AZ23" t="s">
         <v>1</v>
       </c>
-      <c r="BA23">
-        <v>1</v>
+      <c r="BA23" t="s">
+        <v>3</v>
       </c>
       <c r="BB23" t="s">
         <v>1</v>
       </c>
       <c r="BC23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD23">
         <v>1</v>
       </c>
-      <c r="BE23">
-        <v>1</v>
+      <c r="BE23" t="s">
+        <v>2</v>
       </c>
       <c r="BF23">
         <v>1</v>
       </c>
-      <c r="BG23">
-        <v>1</v>
+      <c r="BG23" t="s">
+        <v>3</v>
       </c>
       <c r="BH23" t="s">
         <v>1</v>
@@ -4908,19 +4991,19 @@
         <v>1</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25" t="s">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -4932,13 +5015,13 @@
         <v>1</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25" t="s">
         <v>1</v>
       </c>
-      <c r="M25">
-        <v>1</v>
+      <c r="M25" t="s">
+        <v>2</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -4949,20 +5032,20 @@
       <c r="P25">
         <v>1</v>
       </c>
-      <c r="Q25">
-        <v>1</v>
+      <c r="Q25" t="s">
+        <v>2</v>
       </c>
       <c r="R25">
         <v>1</v>
       </c>
       <c r="S25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T25" t="s">
         <v>1</v>
       </c>
-      <c r="U25">
-        <v>1</v>
+      <c r="U25" t="s">
+        <v>3</v>
       </c>
       <c r="V25" t="s">
         <v>1</v>
@@ -4985,14 +5068,14 @@
       <c r="AB25" t="s">
         <v>1</v>
       </c>
-      <c r="AC25">
-        <v>1</v>
+      <c r="AC25" t="s">
+        <v>3</v>
       </c>
       <c r="AD25">
         <v>1</v>
       </c>
       <c r="AE25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF25" t="s">
         <v>1</v>
@@ -5003,26 +5086,26 @@
       <c r="AH25" t="s">
         <v>1</v>
       </c>
-      <c r="AI25">
-        <v>1</v>
+      <c r="AI25" t="s">
+        <v>3</v>
       </c>
       <c r="AJ25" t="s">
         <v>1</v>
       </c>
       <c r="AK25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL25">
         <v>1</v>
       </c>
       <c r="AM25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN25" t="s">
         <v>1</v>
       </c>
-      <c r="AO25">
-        <v>1</v>
+      <c r="AO25" t="s">
+        <v>3</v>
       </c>
       <c r="AP25" t="s">
         <v>1</v>
@@ -5033,44 +5116,44 @@
       <c r="AR25" t="s">
         <v>1</v>
       </c>
-      <c r="AS25">
-        <v>1</v>
+      <c r="AS25" t="s">
+        <v>3</v>
       </c>
       <c r="AT25">
         <v>1</v>
       </c>
-      <c r="AU25">
-        <v>1</v>
+      <c r="AU25" t="s">
+        <v>2</v>
       </c>
       <c r="AV25">
         <v>1</v>
       </c>
-      <c r="AW25">
-        <v>1</v>
+      <c r="AW25" t="s">
+        <v>2</v>
       </c>
       <c r="AX25">
         <v>1</v>
       </c>
       <c r="AY25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ25" t="s">
         <v>1</v>
       </c>
       <c r="BA25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB25">
         <v>1</v>
       </c>
       <c r="BC25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD25" t="s">
         <v>1</v>
       </c>
       <c r="BE25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF25">
         <v>1</v>
@@ -5082,7 +5165,7 @@
         <v>1</v>
       </c>
       <c r="BI25" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:61" x14ac:dyDescent="0.25">
@@ -5272,13 +5355,13 @@
     </row>
     <row r="27" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
-      <c r="C27">
-        <v>1</v>
+      <c r="C27" t="s">
+        <v>3</v>
       </c>
       <c r="D27" t="s">
         <v>1</v>
@@ -5296,7 +5379,7 @@
         <v>1</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -5308,13 +5391,13 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N27" t="s">
         <v>1</v>
       </c>
-      <c r="O27">
-        <v>1</v>
+      <c r="O27" t="s">
+        <v>3</v>
       </c>
       <c r="P27" t="s">
         <v>1</v>
@@ -5332,13 +5415,13 @@
         <v>1</v>
       </c>
       <c r="U27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V27">
         <v>1</v>
       </c>
       <c r="W27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X27" t="s">
         <v>1</v>
@@ -5350,7 +5433,7 @@
         <v>1</v>
       </c>
       <c r="AA27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB27">
         <v>1</v>
@@ -5361,8 +5444,8 @@
       <c r="AD27">
         <v>1</v>
       </c>
-      <c r="AE27">
-        <v>1</v>
+      <c r="AE27" t="s">
+        <v>3</v>
       </c>
       <c r="AF27" t="s">
         <v>1</v>
@@ -5373,32 +5456,32 @@
       <c r="AH27" t="s">
         <v>1</v>
       </c>
-      <c r="AI27">
-        <v>1</v>
+      <c r="AI27" t="s">
+        <v>2</v>
       </c>
       <c r="AJ27">
         <v>1</v>
       </c>
       <c r="AK27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL27" t="s">
         <v>1</v>
       </c>
       <c r="AM27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN27">
         <v>1</v>
       </c>
-      <c r="AO27">
-        <v>1</v>
+      <c r="AO27" t="s">
+        <v>2</v>
       </c>
       <c r="AP27">
         <v>1</v>
       </c>
-      <c r="AQ27">
-        <v>1</v>
+      <c r="AQ27" t="s">
+        <v>2</v>
       </c>
       <c r="AR27">
         <v>1</v>
@@ -5416,13 +5499,13 @@
         <v>1</v>
       </c>
       <c r="AW27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX27" t="s">
         <v>1</v>
       </c>
       <c r="AY27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ27">
         <v>1</v>
@@ -5433,20 +5516,20 @@
       <c r="BB27">
         <v>1</v>
       </c>
-      <c r="BC27">
-        <v>1</v>
+      <c r="BC27" t="s">
+        <v>2</v>
       </c>
       <c r="BD27" t="s">
         <v>1</v>
       </c>
-      <c r="BE27">
-        <v>1</v>
+      <c r="BE27" t="s">
+        <v>3</v>
       </c>
       <c r="BF27">
         <v>1</v>
       </c>
       <c r="BG27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BH27" t="s">
         <v>1</v>
@@ -5647,14 +5730,14 @@
       <c r="B29" t="s">
         <v>1</v>
       </c>
-      <c r="C29">
-        <v>1</v>
+      <c r="C29" t="s">
+        <v>3</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
-      <c r="E29">
-        <v>1</v>
+      <c r="E29" t="s">
+        <v>2</v>
       </c>
       <c r="F29" t="s">
         <v>1</v>
@@ -5666,7 +5749,7 @@
         <v>1</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -5678,7 +5761,7 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N29" t="s">
         <v>1</v>
@@ -5689,14 +5772,14 @@
       <c r="P29" t="s">
         <v>1</v>
       </c>
-      <c r="Q29">
-        <v>1</v>
+      <c r="Q29" t="s">
+        <v>3</v>
       </c>
       <c r="R29" t="s">
         <v>1</v>
       </c>
-      <c r="S29">
-        <v>1</v>
+      <c r="S29" t="s">
+        <v>2</v>
       </c>
       <c r="T29">
         <v>1</v>
@@ -5713,14 +5796,14 @@
       <c r="X29">
         <v>1</v>
       </c>
-      <c r="Y29">
-        <v>1</v>
+      <c r="Y29" t="s">
+        <v>2</v>
       </c>
       <c r="Z29">
         <v>1</v>
       </c>
-      <c r="AA29">
-        <v>1</v>
+      <c r="AA29" t="s">
+        <v>2</v>
       </c>
       <c r="AB29">
         <v>1</v>
@@ -5737,8 +5820,8 @@
       <c r="AF29">
         <v>1</v>
       </c>
-      <c r="AG29">
-        <v>1</v>
+      <c r="AG29" t="s">
+        <v>2</v>
       </c>
       <c r="AH29" t="s">
         <v>1</v>
@@ -5749,8 +5832,8 @@
       <c r="AJ29" t="s">
         <v>1</v>
       </c>
-      <c r="AK29">
-        <v>1</v>
+      <c r="AK29" t="s">
+        <v>3</v>
       </c>
       <c r="AL29" t="s">
         <v>1</v>
@@ -5761,8 +5844,8 @@
       <c r="AN29" t="s">
         <v>1</v>
       </c>
-      <c r="AO29">
-        <v>1</v>
+      <c r="AO29" t="s">
+        <v>3</v>
       </c>
       <c r="AP29">
         <v>1</v>
@@ -5780,13 +5863,13 @@
         <v>1</v>
       </c>
       <c r="AU29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV29" t="s">
         <v>1</v>
       </c>
       <c r="AW29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX29">
         <v>1</v>
@@ -5798,13 +5881,13 @@
         <v>1</v>
       </c>
       <c r="BA29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB29" t="s">
         <v>1</v>
       </c>
-      <c r="BC29">
-        <v>1</v>
+      <c r="BC29" t="s">
+        <v>2</v>
       </c>
       <c r="BD29">
         <v>1</v>
@@ -5816,7 +5899,7 @@
         <v>1</v>
       </c>
       <c r="BG29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BH29" t="s">
         <v>1</v>
@@ -6017,20 +6100,20 @@
       <c r="B31" t="s">
         <v>1</v>
       </c>
-      <c r="C31">
-        <v>1</v>
+      <c r="C31" t="s">
+        <v>3</v>
       </c>
       <c r="D31" t="s">
         <v>1</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
-      <c r="G31">
-        <v>1</v>
+      <c r="G31" t="s">
+        <v>2</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -6042,25 +6125,25 @@
         <v>1</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31" t="s">
         <v>1</v>
       </c>
-      <c r="M31">
-        <v>1</v>
+      <c r="M31" t="s">
+        <v>3</v>
       </c>
       <c r="N31" t="s">
         <v>1</v>
       </c>
-      <c r="O31">
-        <v>1</v>
+      <c r="O31" t="s">
+        <v>2</v>
       </c>
       <c r="P31">
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R31" t="s">
         <v>1</v>
@@ -6072,7 +6155,7 @@
         <v>1</v>
       </c>
       <c r="U31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V31">
         <v>1</v>
@@ -6084,13 +6167,13 @@
         <v>1</v>
       </c>
       <c r="Y31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z31" t="s">
         <v>1</v>
       </c>
       <c r="AA31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB31">
         <v>1</v>
@@ -6101,8 +6184,8 @@
       <c r="AD31">
         <v>1</v>
       </c>
-      <c r="AE31">
-        <v>1</v>
+      <c r="AE31" t="s">
+        <v>3</v>
       </c>
       <c r="AF31" t="s">
         <v>1</v>
@@ -6120,13 +6203,13 @@
         <v>1</v>
       </c>
       <c r="AK31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL31">
         <v>1</v>
       </c>
-      <c r="AM31">
-        <v>1</v>
+      <c r="AM31" t="s">
+        <v>2</v>
       </c>
       <c r="AN31">
         <v>1</v>
@@ -6137,14 +6220,14 @@
       <c r="AP31">
         <v>1</v>
       </c>
-      <c r="AQ31">
-        <v>1</v>
+      <c r="AQ31" t="s">
+        <v>2</v>
       </c>
       <c r="AR31">
         <v>1</v>
       </c>
-      <c r="AS31">
-        <v>1</v>
+      <c r="AS31" t="s">
+        <v>3</v>
       </c>
       <c r="AT31" t="s">
         <v>1</v>
@@ -6155,8 +6238,8 @@
       <c r="AV31" t="s">
         <v>1</v>
       </c>
-      <c r="AW31">
-        <v>1</v>
+      <c r="AW31" t="s">
+        <v>3</v>
       </c>
       <c r="AX31">
         <v>1</v>
@@ -6168,7 +6251,7 @@
         <v>1</v>
       </c>
       <c r="BA31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB31" t="s">
         <v>1</v>
@@ -6179,14 +6262,14 @@
       <c r="BD31" t="s">
         <v>1</v>
       </c>
-      <c r="BE31">
-        <v>1</v>
+      <c r="BE31" t="s">
+        <v>3</v>
       </c>
       <c r="BF31">
         <v>1</v>
       </c>
       <c r="BG31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BH31" t="s">
         <v>1</v>
@@ -6388,43 +6471,43 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
-      <c r="E33">
-        <v>1</v>
+      <c r="E33" t="s">
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
-      <c r="G33">
-        <v>1</v>
+      <c r="G33" t="s">
+        <v>3</v>
       </c>
       <c r="H33" t="s">
         <v>1</v>
       </c>
-      <c r="I33">
-        <v>1</v>
+      <c r="I33" t="s">
+        <v>3</v>
       </c>
       <c r="J33" t="s">
         <v>1</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
-      <c r="M33">
-        <v>1</v>
+      <c r="M33" t="s">
+        <v>2</v>
       </c>
       <c r="N33">
         <v>1</v>
       </c>
       <c r="O33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P33" t="s">
         <v>1</v>
@@ -6447,14 +6530,14 @@
       <c r="V33" t="s">
         <v>1</v>
       </c>
-      <c r="W33">
-        <v>1</v>
+      <c r="W33" t="s">
+        <v>3</v>
       </c>
       <c r="X33" t="s">
         <v>1</v>
       </c>
-      <c r="Y33">
-        <v>1</v>
+      <c r="Y33" t="s">
+        <v>2</v>
       </c>
       <c r="Z33">
         <v>1</v>
@@ -6472,7 +6555,7 @@
         <v>1</v>
       </c>
       <c r="AE33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF33" t="s">
         <v>1</v>
@@ -6490,19 +6573,19 @@
         <v>1</v>
       </c>
       <c r="AK33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL33">
         <v>1</v>
       </c>
       <c r="AM33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN33" t="s">
         <v>1</v>
       </c>
-      <c r="AO33">
-        <v>1</v>
+      <c r="AO33" t="s">
+        <v>3</v>
       </c>
       <c r="AP33" t="s">
         <v>1</v>
@@ -6513,14 +6596,14 @@
       <c r="AR33" t="s">
         <v>1</v>
       </c>
-      <c r="AS33">
-        <v>1</v>
+      <c r="AS33" t="s">
+        <v>3</v>
       </c>
       <c r="AT33">
         <v>1</v>
       </c>
-      <c r="AU33">
-        <v>1</v>
+      <c r="AU33" t="s">
+        <v>4</v>
       </c>
       <c r="AV33">
         <v>1</v>
@@ -6537,32 +6620,32 @@
       <c r="AZ33">
         <v>1</v>
       </c>
-      <c r="BA33">
-        <v>1</v>
+      <c r="BA33" t="s">
+        <v>2</v>
       </c>
       <c r="BB33">
         <v>1</v>
       </c>
-      <c r="BC33">
-        <v>1</v>
+      <c r="BC33" t="s">
+        <v>2</v>
       </c>
       <c r="BD33">
         <v>1</v>
       </c>
       <c r="BE33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF33" t="s">
         <v>1</v>
       </c>
       <c r="BG33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BH33">
         <v>1</v>
       </c>
       <c r="BI33" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:61" x14ac:dyDescent="0.25">
@@ -6752,7 +6835,7 @@
     </row>
     <row r="35" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -6763,38 +6846,38 @@
       <c r="D35">
         <v>1</v>
       </c>
-      <c r="E35">
-        <v>1</v>
+      <c r="E35" t="s">
+        <v>2</v>
       </c>
       <c r="F35" t="s">
         <v>1</v>
       </c>
-      <c r="G35">
-        <v>1</v>
+      <c r="G35" t="s">
+        <v>3</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
-      <c r="I35">
-        <v>1</v>
+      <c r="I35" t="s">
+        <v>2</v>
       </c>
       <c r="J35">
         <v>1</v>
       </c>
-      <c r="K35">
-        <v>1</v>
+      <c r="K35" t="s">
+        <v>2</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N35" t="s">
         <v>1</v>
       </c>
-      <c r="O35">
-        <v>1</v>
+      <c r="O35" t="s">
+        <v>3</v>
       </c>
       <c r="P35" t="s">
         <v>1</v>
@@ -6811,8 +6894,8 @@
       <c r="T35" t="s">
         <v>1</v>
       </c>
-      <c r="U35">
-        <v>1</v>
+      <c r="U35" t="s">
+        <v>3</v>
       </c>
       <c r="V35" t="s">
         <v>1</v>
@@ -6824,25 +6907,25 @@
         <v>1</v>
       </c>
       <c r="Y35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z35">
         <v>1</v>
       </c>
       <c r="AA35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB35" t="s">
         <v>1</v>
       </c>
-      <c r="AC35">
-        <v>1</v>
+      <c r="AC35" t="s">
+        <v>3</v>
       </c>
       <c r="AD35">
         <v>1</v>
       </c>
       <c r="AE35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF35" t="s">
         <v>1</v>
@@ -6854,37 +6937,37 @@
         <v>1</v>
       </c>
       <c r="AI35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ35">
         <v>1</v>
       </c>
       <c r="AK35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL35" t="s">
         <v>1</v>
       </c>
-      <c r="AM35">
-        <v>1</v>
+      <c r="AM35" t="s">
+        <v>3</v>
       </c>
       <c r="AN35" t="s">
         <v>1</v>
       </c>
-      <c r="AO35">
-        <v>1</v>
+      <c r="AO35" t="s">
+        <v>2</v>
       </c>
       <c r="AP35">
         <v>1</v>
       </c>
-      <c r="AQ35">
-        <v>1</v>
+      <c r="AQ35" t="s">
+        <v>2</v>
       </c>
       <c r="AR35">
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT35" t="s">
         <v>1</v>
@@ -6895,38 +6978,38 @@
       <c r="AV35" t="s">
         <v>1</v>
       </c>
-      <c r="AW35">
-        <v>1</v>
+      <c r="AW35" t="s">
+        <v>3</v>
       </c>
       <c r="AX35">
         <v>1</v>
       </c>
       <c r="AY35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ35" t="s">
         <v>1</v>
       </c>
-      <c r="BA35">
-        <v>1</v>
+      <c r="BA35" t="s">
+        <v>3</v>
       </c>
       <c r="BB35" t="s">
         <v>1</v>
       </c>
-      <c r="BC35">
-        <v>1</v>
+      <c r="BC35" t="s">
+        <v>3</v>
       </c>
       <c r="BD35" t="s">
         <v>1</v>
       </c>
-      <c r="BE35">
-        <v>1</v>
+      <c r="BE35" t="s">
+        <v>2</v>
       </c>
       <c r="BF35">
         <v>1</v>
       </c>
-      <c r="BG35">
-        <v>1</v>
+      <c r="BG35" t="s">
+        <v>3</v>
       </c>
       <c r="BH35" t="s">
         <v>1</v>
@@ -7127,14 +7210,14 @@
       <c r="B37" t="s">
         <v>1</v>
       </c>
-      <c r="C37">
-        <v>1</v>
+      <c r="C37" t="s">
+        <v>3</v>
       </c>
       <c r="D37" t="s">
         <v>1</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -7145,8 +7228,8 @@
       <c r="H37">
         <v>1</v>
       </c>
-      <c r="I37">
-        <v>1</v>
+      <c r="I37" t="s">
+        <v>3</v>
       </c>
       <c r="J37" t="s">
         <v>1</v>
@@ -7158,13 +7241,13 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N37">
         <v>1</v>
       </c>
       <c r="O37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P37" t="s">
         <v>1</v>
@@ -7181,20 +7264,20 @@
       <c r="T37" t="s">
         <v>1</v>
       </c>
-      <c r="U37">
-        <v>1</v>
+      <c r="U37" t="s">
+        <v>3</v>
       </c>
       <c r="V37">
         <v>1</v>
       </c>
-      <c r="W37">
-        <v>1</v>
+      <c r="W37" t="s">
+        <v>2</v>
       </c>
       <c r="X37">
         <v>1</v>
       </c>
       <c r="Y37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z37" t="s">
         <v>1</v>
@@ -7202,11 +7285,8 @@
       <c r="AA37">
         <v>1</v>
       </c>
-      <c r="AB37" t="s">
-        <v>1</v>
-      </c>
       <c r="AC37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD37">
         <v>1</v>
@@ -7217,14 +7297,14 @@
       <c r="AF37">
         <v>1</v>
       </c>
-      <c r="AG37">
-        <v>1</v>
+      <c r="AG37" t="s">
+        <v>2</v>
       </c>
       <c r="AH37">
         <v>1</v>
       </c>
-      <c r="AI37">
-        <v>1</v>
+      <c r="AI37" t="s">
+        <v>3</v>
       </c>
       <c r="AJ37" t="s">
         <v>1</v>
@@ -7236,19 +7316,19 @@
         <v>1</v>
       </c>
       <c r="AM37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN37">
         <v>1</v>
       </c>
       <c r="AO37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP37" t="s">
         <v>1</v>
       </c>
-      <c r="AQ37">
-        <v>1</v>
+      <c r="AQ37" t="s">
+        <v>3</v>
       </c>
       <c r="AR37" t="s">
         <v>1</v>
@@ -7260,19 +7340,19 @@
         <v>1</v>
       </c>
       <c r="AU37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV37">
         <v>1</v>
       </c>
-      <c r="AW37">
-        <v>1</v>
+      <c r="AW37" t="s">
+        <v>3</v>
       </c>
       <c r="AX37" t="s">
         <v>1</v>
       </c>
-      <c r="AY37">
-        <v>1</v>
+      <c r="AY37" t="s">
+        <v>2</v>
       </c>
       <c r="AZ37">
         <v>1</v>
@@ -7283,8 +7363,8 @@
       <c r="BB37">
         <v>1</v>
       </c>
-      <c r="BC37">
-        <v>1</v>
+      <c r="BC37" t="s">
+        <v>2</v>
       </c>
       <c r="BD37" t="s">
         <v>1</v>
@@ -7295,8 +7375,8 @@
       <c r="BF37" t="s">
         <v>1</v>
       </c>
-      <c r="BG37">
-        <v>1</v>
+      <c r="BG37" t="s">
+        <v>3</v>
       </c>
       <c r="BH37" t="s">
         <v>1</v>
@@ -7498,31 +7578,31 @@
         <v>1</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
-      <c r="E39">
-        <v>1</v>
+      <c r="E39" t="s">
+        <v>2</v>
       </c>
       <c r="F39">
         <v>1</v>
       </c>
-      <c r="G39">
-        <v>1</v>
+      <c r="G39" t="s">
+        <v>3</v>
       </c>
       <c r="H39" t="s">
         <v>1</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J39">
         <v>1</v>
       </c>
       <c r="K39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L39" t="s">
         <v>1</v>
@@ -7533,8 +7613,8 @@
       <c r="N39" t="s">
         <v>1</v>
       </c>
-      <c r="O39">
-        <v>1</v>
+      <c r="O39" t="s">
+        <v>3</v>
       </c>
       <c r="P39" t="s">
         <v>1</v>
@@ -7546,43 +7626,43 @@
         <v>1</v>
       </c>
       <c r="S39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T39">
         <v>1</v>
       </c>
       <c r="U39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V39" t="s">
         <v>1</v>
       </c>
       <c r="W39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X39">
         <v>1</v>
       </c>
       <c r="Y39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z39" t="s">
         <v>1</v>
       </c>
-      <c r="AA39">
-        <v>1</v>
+      <c r="AA39" t="s">
+        <v>2</v>
       </c>
       <c r="AB39">
         <v>1</v>
       </c>
       <c r="AC39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD39" t="s">
         <v>1</v>
       </c>
       <c r="AE39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF39">
         <v>1</v>
@@ -7594,37 +7674,37 @@
         <v>1</v>
       </c>
       <c r="AI39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ39" t="s">
         <v>1</v>
       </c>
-      <c r="AK39">
-        <v>1</v>
+      <c r="AK39" t="s">
+        <v>2</v>
       </c>
       <c r="AL39">
         <v>1</v>
       </c>
       <c r="AM39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN39" t="s">
         <v>1</v>
       </c>
       <c r="AO39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP39">
         <v>1</v>
       </c>
       <c r="AQ39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR39" t="s">
         <v>1</v>
       </c>
-      <c r="AS39">
-        <v>1</v>
+      <c r="AS39" t="s">
+        <v>2</v>
       </c>
       <c r="AT39">
         <v>1</v>
@@ -7642,13 +7722,13 @@
         <v>1</v>
       </c>
       <c r="AY39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ39" t="s">
         <v>1</v>
       </c>
-      <c r="BA39">
-        <v>1</v>
+      <c r="BA39" t="s">
+        <v>3</v>
       </c>
       <c r="BB39" t="s">
         <v>1</v>
@@ -7862,13 +7942,13 @@
     </row>
     <row r="41" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
-      <c r="C41">
-        <v>1</v>
+      <c r="C41" t="s">
+        <v>3</v>
       </c>
       <c r="D41" t="s">
         <v>1</v>
@@ -7879,44 +7959,44 @@
       <c r="F41" t="s">
         <v>1</v>
       </c>
-      <c r="G41">
-        <v>1</v>
+      <c r="G41" t="s">
+        <v>3</v>
       </c>
       <c r="H41">
         <v>1</v>
       </c>
-      <c r="I41">
-        <v>1</v>
+      <c r="I41" t="s">
+        <v>2</v>
       </c>
       <c r="J41" t="s">
         <v>1</v>
       </c>
-      <c r="K41">
-        <v>1</v>
+      <c r="K41" t="s">
+        <v>3</v>
       </c>
       <c r="L41">
         <v>1</v>
       </c>
-      <c r="M41">
-        <v>1</v>
+      <c r="M41" t="s">
+        <v>2</v>
       </c>
       <c r="N41" t="s">
         <v>1</v>
       </c>
       <c r="O41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P41">
         <v>1</v>
       </c>
-      <c r="Q41">
-        <v>1</v>
+      <c r="Q41" t="s">
+        <v>2</v>
       </c>
       <c r="R41">
         <v>1</v>
       </c>
       <c r="S41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T41" t="s">
         <v>1</v>
@@ -7933,38 +8013,38 @@
       <c r="X41" t="s">
         <v>1</v>
       </c>
-      <c r="Y41">
-        <v>1</v>
+      <c r="Y41" t="s">
+        <v>3</v>
       </c>
       <c r="Z41">
         <v>1</v>
       </c>
-      <c r="AA41">
-        <v>1</v>
+      <c r="AA41" t="s">
+        <v>2</v>
       </c>
       <c r="AB41" t="s">
         <v>1</v>
       </c>
-      <c r="AC41">
-        <v>1</v>
+      <c r="AC41" t="s">
+        <v>3</v>
       </c>
       <c r="AD41">
         <v>1</v>
       </c>
-      <c r="AE41">
-        <v>1</v>
+      <c r="AE41" t="s">
+        <v>2</v>
       </c>
       <c r="AF41" t="s">
         <v>1</v>
       </c>
-      <c r="AG41">
-        <v>1</v>
+      <c r="AG41" t="s">
+        <v>3</v>
       </c>
       <c r="AH41" t="s">
         <v>1</v>
       </c>
-      <c r="AI41">
-        <v>1</v>
+      <c r="AI41" t="s">
+        <v>3</v>
       </c>
       <c r="AJ41" t="s">
         <v>1</v>
@@ -7976,61 +8056,61 @@
         <v>1</v>
       </c>
       <c r="AM41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN41">
         <v>1</v>
       </c>
-      <c r="AO41">
-        <v>1</v>
+      <c r="AO41" t="s">
+        <v>2</v>
       </c>
       <c r="AP41" t="s">
         <v>1</v>
       </c>
-      <c r="AQ41">
-        <v>1</v>
+      <c r="AQ41" t="s">
+        <v>3</v>
       </c>
       <c r="AR41">
         <v>1</v>
       </c>
       <c r="AS41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT41" t="s">
         <v>1</v>
       </c>
       <c r="AU41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV41">
         <v>1</v>
       </c>
       <c r="AW41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX41" t="s">
         <v>1</v>
       </c>
-      <c r="AY41">
-        <v>1</v>
+      <c r="AY41" t="s">
+        <v>3</v>
       </c>
       <c r="AZ41">
         <v>1</v>
       </c>
-      <c r="BA41">
-        <v>1</v>
+      <c r="BA41" t="s">
+        <v>2</v>
       </c>
       <c r="BB41">
         <v>1</v>
       </c>
-      <c r="BC41">
-        <v>1</v>
+      <c r="BC41" t="s">
+        <v>2</v>
       </c>
       <c r="BD41" t="s">
         <v>1</v>
       </c>
-      <c r="BE41">
-        <v>1</v>
+      <c r="BE41" t="s">
+        <v>3</v>
       </c>
       <c r="BF41" t="s">
         <v>1</v>
@@ -8238,55 +8318,55 @@
         <v>1</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F43" t="s">
         <v>1</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H43">
         <v>1</v>
       </c>
-      <c r="I43">
-        <v>1</v>
+      <c r="I43" t="s">
+        <v>2</v>
       </c>
       <c r="J43">
         <v>1</v>
       </c>
-      <c r="K43">
-        <v>1</v>
+      <c r="K43" t="s">
+        <v>3</v>
       </c>
       <c r="L43" t="s">
         <v>1</v>
       </c>
-      <c r="M43">
-        <v>1</v>
+      <c r="M43" t="s">
+        <v>2</v>
       </c>
       <c r="N43">
         <v>1</v>
       </c>
       <c r="O43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P43" t="s">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R43">
         <v>1</v>
       </c>
       <c r="S43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T43" t="s">
         <v>1</v>
@@ -8298,43 +8378,43 @@
         <v>1</v>
       </c>
       <c r="W43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X43">
         <v>1</v>
       </c>
       <c r="Y43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z43" t="s">
         <v>1</v>
       </c>
       <c r="AA43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB43">
         <v>1</v>
       </c>
       <c r="AC43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD43" t="s">
         <v>1</v>
       </c>
       <c r="AE43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF43">
         <v>1</v>
       </c>
-      <c r="AG43">
-        <v>1</v>
+      <c r="AG43" t="s">
+        <v>2</v>
       </c>
       <c r="AH43">
         <v>1</v>
       </c>
       <c r="AI43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ43" t="s">
         <v>1</v>
@@ -8352,7 +8432,7 @@
         <v>1</v>
       </c>
       <c r="AO43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP43">
         <v>1</v>
@@ -8363,38 +8443,38 @@
       <c r="AR43">
         <v>1</v>
       </c>
-      <c r="AS43">
-        <v>1</v>
+      <c r="AS43" t="s">
+        <v>2</v>
       </c>
       <c r="AT43">
         <v>1</v>
       </c>
       <c r="AU43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV43" t="s">
         <v>1</v>
       </c>
       <c r="AW43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX43">
         <v>1</v>
       </c>
-      <c r="AY43">
-        <v>1</v>
+      <c r="AY43" t="s">
+        <v>2</v>
       </c>
       <c r="AZ43">
         <v>1</v>
       </c>
-      <c r="BA43">
-        <v>1</v>
+      <c r="BA43" t="s">
+        <v>3</v>
       </c>
       <c r="BB43" t="s">
         <v>1</v>
       </c>
-      <c r="BC43">
-        <v>1</v>
+      <c r="BC43" t="s">
+        <v>2</v>
       </c>
       <c r="BD43">
         <v>1</v>
@@ -8406,7 +8486,7 @@
         <v>1</v>
       </c>
       <c r="BG43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BH43" t="s">
         <v>1</v>
@@ -8607,8 +8687,8 @@
       <c r="B45" t="s">
         <v>1</v>
       </c>
-      <c r="C45">
-        <v>1</v>
+      <c r="C45" t="s">
+        <v>2</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -8619,14 +8699,14 @@
       <c r="F45">
         <v>1</v>
       </c>
-      <c r="G45">
-        <v>1</v>
+      <c r="G45" t="s">
+        <v>2</v>
       </c>
       <c r="H45" t="s">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J45">
         <v>1</v>
@@ -8638,13 +8718,13 @@
         <v>1</v>
       </c>
       <c r="M45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N45" t="s">
         <v>1</v>
       </c>
       <c r="O45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P45">
         <v>1</v>
@@ -8661,44 +8741,44 @@
       <c r="T45">
         <v>1</v>
       </c>
-      <c r="U45">
-        <v>1</v>
+      <c r="U45" t="s">
+        <v>2</v>
       </c>
       <c r="V45" t="s">
         <v>1</v>
       </c>
       <c r="W45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X45">
         <v>1</v>
       </c>
-      <c r="Y45">
-        <v>1</v>
+      <c r="Y45" t="s">
+        <v>2</v>
       </c>
       <c r="Z45">
         <v>1</v>
       </c>
-      <c r="AA45">
-        <v>1</v>
+      <c r="AA45" t="s">
+        <v>3</v>
       </c>
       <c r="AB45" t="s">
         <v>1</v>
       </c>
       <c r="AC45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD45">
         <v>1</v>
       </c>
-      <c r="AE45">
-        <v>1</v>
+      <c r="AE45" t="s">
+        <v>2</v>
       </c>
       <c r="AF45">
         <v>1</v>
       </c>
       <c r="AG45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH45" t="s">
         <v>1</v>
@@ -8715,20 +8795,20 @@
       <c r="AL45" t="s">
         <v>1</v>
       </c>
-      <c r="AM45">
-        <v>1</v>
+      <c r="AM45" t="s">
+        <v>3</v>
       </c>
       <c r="AN45" t="s">
         <v>1</v>
       </c>
       <c r="AO45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP45">
         <v>1</v>
       </c>
       <c r="AQ45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR45" t="s">
         <v>1</v>
@@ -8739,8 +8819,8 @@
       <c r="AT45" t="s">
         <v>1</v>
       </c>
-      <c r="AU45">
-        <v>1</v>
+      <c r="AU45" t="s">
+        <v>3</v>
       </c>
       <c r="AV45">
         <v>1</v>
@@ -8751,14 +8831,14 @@
       <c r="AX45">
         <v>1</v>
       </c>
-      <c r="AY45">
-        <v>1</v>
+      <c r="AY45" t="s">
+        <v>2</v>
       </c>
       <c r="AZ45" t="s">
         <v>1</v>
       </c>
-      <c r="BA45">
-        <v>1</v>
+      <c r="BA45" t="s">
+        <v>3</v>
       </c>
       <c r="BB45" t="s">
         <v>1</v>
@@ -8770,7 +8850,7 @@
         <v>1</v>
       </c>
       <c r="BE45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF45">
         <v>1</v>
@@ -8782,7 +8862,7 @@
         <v>1</v>
       </c>
       <c r="BI45" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:61" x14ac:dyDescent="0.25">
@@ -8977,14 +9057,14 @@
       <c r="B47" t="s">
         <v>1</v>
       </c>
-      <c r="C47">
-        <v>1</v>
+      <c r="C47" t="s">
+        <v>3</v>
       </c>
       <c r="D47" t="s">
         <v>1</v>
       </c>
-      <c r="E47">
-        <v>1</v>
+      <c r="E47" t="s">
+        <v>3</v>
       </c>
       <c r="F47" t="s">
         <v>1</v>
@@ -8996,7 +9076,7 @@
         <v>1</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J47">
         <v>1</v>
@@ -9008,43 +9088,43 @@
         <v>1</v>
       </c>
       <c r="M47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N47" t="s">
         <v>1</v>
       </c>
-      <c r="O47">
-        <v>1</v>
+      <c r="O47" t="s">
+        <v>3</v>
       </c>
       <c r="P47" t="s">
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R47">
         <v>1</v>
       </c>
       <c r="S47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T47" t="s">
         <v>1</v>
       </c>
-      <c r="U47">
-        <v>1</v>
+      <c r="U47" t="s">
+        <v>2</v>
       </c>
       <c r="V47">
         <v>1</v>
       </c>
       <c r="W47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X47" t="s">
         <v>1</v>
       </c>
       <c r="Y47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z47">
         <v>1</v>
@@ -9056,13 +9136,13 @@
         <v>1</v>
       </c>
       <c r="AC47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD47" t="s">
         <v>1</v>
       </c>
-      <c r="AE47">
-        <v>1</v>
+      <c r="AE47" t="s">
+        <v>3</v>
       </c>
       <c r="AF47" t="s">
         <v>1</v>
@@ -9074,13 +9154,13 @@
         <v>1</v>
       </c>
       <c r="AI47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ47">
         <v>1</v>
       </c>
-      <c r="AK47">
-        <v>1</v>
+      <c r="AK47" t="s">
+        <v>2</v>
       </c>
       <c r="AL47">
         <v>1</v>
@@ -9092,7 +9172,7 @@
         <v>1</v>
       </c>
       <c r="AO47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP47" t="s">
         <v>1</v>
@@ -9104,7 +9184,7 @@
         <v>1</v>
       </c>
       <c r="AS47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT47">
         <v>1</v>
@@ -9116,7 +9196,7 @@
         <v>1</v>
       </c>
       <c r="AW47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX47" t="s">
         <v>1</v>
@@ -9128,13 +9208,13 @@
         <v>1</v>
       </c>
       <c r="BA47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB47">
         <v>1</v>
       </c>
       <c r="BC47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD47" t="s">
         <v>1</v>
@@ -9145,8 +9225,8 @@
       <c r="BF47" t="s">
         <v>1</v>
       </c>
-      <c r="BG47">
-        <v>1</v>
+      <c r="BG47" t="s">
+        <v>3</v>
       </c>
       <c r="BH47" t="s">
         <v>1</v>
@@ -9347,20 +9427,20 @@
       <c r="B49" t="s">
         <v>1</v>
       </c>
-      <c r="C49">
-        <v>1</v>
+      <c r="C49" t="s">
+        <v>3</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
-      <c r="E49">
-        <v>1</v>
+      <c r="E49" t="s">
+        <v>2</v>
       </c>
       <c r="F49" t="s">
         <v>1</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -9372,19 +9452,19 @@
         <v>1</v>
       </c>
       <c r="K49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L49" t="s">
         <v>1</v>
       </c>
-      <c r="M49">
-        <v>1</v>
+      <c r="M49" t="s">
+        <v>2</v>
       </c>
       <c r="N49">
         <v>1</v>
       </c>
       <c r="O49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P49" t="s">
         <v>1</v>
@@ -9408,49 +9488,49 @@
         <v>1</v>
       </c>
       <c r="W49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X49">
         <v>1</v>
       </c>
-      <c r="Y49">
-        <v>1</v>
+      <c r="Y49" t="s">
+        <v>2</v>
       </c>
       <c r="Z49" t="s">
         <v>1</v>
       </c>
-      <c r="AA49">
-        <v>1</v>
+      <c r="AA49" t="s">
+        <v>3</v>
       </c>
       <c r="AB49">
         <v>1</v>
       </c>
       <c r="AC49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD49" t="s">
         <v>1</v>
       </c>
       <c r="AE49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF49">
         <v>1</v>
       </c>
-      <c r="AG49">
-        <v>1</v>
+      <c r="AG49" t="s">
+        <v>2</v>
       </c>
       <c r="AH49">
         <v>1</v>
       </c>
-      <c r="AI49">
-        <v>1</v>
+      <c r="AI49" t="s">
+        <v>3</v>
       </c>
       <c r="AJ49" t="s">
         <v>1</v>
       </c>
       <c r="AK49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL49">
         <v>1</v>
@@ -9467,8 +9547,8 @@
       <c r="AP49">
         <v>1</v>
       </c>
-      <c r="AQ49">
-        <v>1</v>
+      <c r="AQ49" t="s">
+        <v>2</v>
       </c>
       <c r="AR49">
         <v>1</v>
@@ -9480,7 +9560,7 @@
         <v>1</v>
       </c>
       <c r="AU49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV49" t="s">
         <v>1</v>
@@ -9492,7 +9572,7 @@
         <v>1</v>
       </c>
       <c r="AY49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ49">
         <v>1</v>
@@ -9510,7 +9590,7 @@
         <v>1</v>
       </c>
       <c r="BE49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF49" t="s">
         <v>1</v>
@@ -9712,7 +9792,7 @@
     </row>
     <row r="51" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -9736,7 +9816,7 @@
         <v>1</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J51" t="s">
         <v>1</v>
@@ -9747,20 +9827,20 @@
       <c r="L51" t="s">
         <v>1</v>
       </c>
-      <c r="M51">
-        <v>1</v>
+      <c r="M51" t="s">
+        <v>3</v>
       </c>
       <c r="N51" t="s">
         <v>1</v>
       </c>
       <c r="O51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P51">
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R51" t="s">
         <v>1</v>
@@ -9771,8 +9851,8 @@
       <c r="T51" t="s">
         <v>1</v>
       </c>
-      <c r="U51">
-        <v>1</v>
+      <c r="U51" t="s">
+        <v>3</v>
       </c>
       <c r="V51" t="s">
         <v>1</v>
@@ -9783,14 +9863,14 @@
       <c r="X51" t="s">
         <v>1</v>
       </c>
-      <c r="Y51">
-        <v>1</v>
+      <c r="Y51" t="s">
+        <v>3</v>
       </c>
       <c r="Z51" t="s">
         <v>1</v>
       </c>
       <c r="AA51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB51">
         <v>1</v>
@@ -9801,14 +9881,14 @@
       <c r="AD51">
         <v>1</v>
       </c>
-      <c r="AE51">
-        <v>1</v>
+      <c r="AE51" t="s">
+        <v>2</v>
       </c>
       <c r="AF51" t="s">
         <v>1</v>
       </c>
       <c r="AG51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH51">
         <v>1</v>
@@ -9820,25 +9900,25 @@
         <v>1</v>
       </c>
       <c r="AK51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL51" t="s">
         <v>1</v>
       </c>
       <c r="AM51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN51">
         <v>1</v>
       </c>
       <c r="AO51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP51" t="s">
         <v>1</v>
       </c>
-      <c r="AQ51">
-        <v>1</v>
+      <c r="AQ51" t="s">
+        <v>3</v>
       </c>
       <c r="AR51">
         <v>1</v>
@@ -9850,7 +9930,7 @@
         <v>1</v>
       </c>
       <c r="AU51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV51" t="s">
         <v>1</v>
@@ -9861,32 +9941,32 @@
       <c r="AX51" t="s">
         <v>1</v>
       </c>
-      <c r="AY51">
-        <v>1</v>
+      <c r="AY51" t="s">
+        <v>3</v>
       </c>
       <c r="AZ51">
         <v>1</v>
       </c>
       <c r="BA51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB51" t="s">
         <v>1</v>
       </c>
-      <c r="BC51">
-        <v>1</v>
+      <c r="BC51" t="s">
+        <v>3</v>
       </c>
       <c r="BD51">
         <v>1</v>
       </c>
-      <c r="BE51">
-        <v>1</v>
+      <c r="BE51" t="s">
+        <v>2</v>
       </c>
       <c r="BF51">
         <v>1</v>
       </c>
-      <c r="BG51">
-        <v>1</v>
+      <c r="BG51" t="s">
+        <v>2</v>
       </c>
       <c r="BH51" t="s">
         <v>1</v>
@@ -10088,7 +10168,7 @@
         <v>1</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -10100,19 +10180,19 @@
         <v>1</v>
       </c>
       <c r="G53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H53" t="s">
         <v>1</v>
       </c>
-      <c r="I53">
-        <v>1</v>
+      <c r="I53" t="s">
+        <v>3</v>
       </c>
       <c r="J53" t="s">
         <v>1</v>
       </c>
-      <c r="K53">
-        <v>1</v>
+      <c r="K53" t="s">
+        <v>2</v>
       </c>
       <c r="L53">
         <v>1</v>
@@ -10123,20 +10203,20 @@
       <c r="N53">
         <v>1</v>
       </c>
-      <c r="O53">
-        <v>1</v>
+      <c r="O53" t="s">
+        <v>2</v>
       </c>
       <c r="P53">
         <v>1</v>
       </c>
-      <c r="Q53">
-        <v>1</v>
+      <c r="Q53" t="s">
+        <v>3</v>
       </c>
       <c r="R53" t="s">
         <v>1</v>
       </c>
       <c r="S53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T53">
         <v>1</v>
@@ -10147,44 +10227,44 @@
       <c r="V53">
         <v>1</v>
       </c>
-      <c r="W53">
-        <v>1</v>
+      <c r="W53" t="s">
+        <v>2</v>
       </c>
       <c r="X53" t="s">
         <v>1</v>
       </c>
-      <c r="Y53">
-        <v>1</v>
+      <c r="Y53" t="s">
+        <v>3</v>
       </c>
       <c r="Z53">
         <v>1</v>
       </c>
-      <c r="AA53">
-        <v>1</v>
+      <c r="AA53" t="s">
+        <v>2</v>
       </c>
       <c r="AB53" t="s">
         <v>1</v>
       </c>
-      <c r="AC53">
-        <v>1</v>
+      <c r="AC53" t="s">
+        <v>3</v>
       </c>
       <c r="AD53">
         <v>1</v>
       </c>
-      <c r="AE53">
-        <v>1</v>
+      <c r="AE53" t="s">
+        <v>2</v>
       </c>
       <c r="AF53" t="s">
         <v>1</v>
       </c>
-      <c r="AG53">
-        <v>1</v>
+      <c r="AG53" t="s">
+        <v>3</v>
       </c>
       <c r="AH53" t="s">
         <v>1</v>
       </c>
       <c r="AI53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ53">
         <v>1</v>
@@ -10196,13 +10276,13 @@
         <v>1</v>
       </c>
       <c r="AM53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN53" t="s">
         <v>1</v>
       </c>
       <c r="AO53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP53">
         <v>1</v>
@@ -10213,8 +10293,8 @@
       <c r="AR53">
         <v>1</v>
       </c>
-      <c r="AS53">
-        <v>1</v>
+      <c r="AS53" t="s">
+        <v>2</v>
       </c>
       <c r="AT53">
         <v>1</v>
@@ -10225,26 +10305,26 @@
       <c r="AV53">
         <v>1</v>
       </c>
-      <c r="AW53">
-        <v>1</v>
+      <c r="AW53" t="s">
+        <v>2</v>
       </c>
       <c r="AX53">
         <v>1</v>
       </c>
-      <c r="AY53">
-        <v>1</v>
+      <c r="AY53" t="s">
+        <v>3</v>
       </c>
       <c r="AZ53" t="s">
         <v>1</v>
       </c>
       <c r="BA53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB53">
         <v>1</v>
       </c>
       <c r="BC53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD53" t="s">
         <v>1</v>
@@ -10458,25 +10538,25 @@
         <v>1</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D55">
         <v>1</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F55" t="s">
         <v>1</v>
       </c>
       <c r="G55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H55">
         <v>1</v>
       </c>
-      <c r="I55">
-        <v>1</v>
+      <c r="I55" t="s">
+        <v>3</v>
       </c>
       <c r="J55" t="s">
         <v>1</v>
@@ -10487,14 +10567,14 @@
       <c r="L55" t="s">
         <v>1</v>
       </c>
-      <c r="M55">
-        <v>1</v>
+      <c r="M55" t="s">
+        <v>3</v>
       </c>
       <c r="N55" t="s">
         <v>1</v>
       </c>
-      <c r="O55">
-        <v>1</v>
+      <c r="O55" t="s">
+        <v>3</v>
       </c>
       <c r="P55">
         <v>1</v>
@@ -10505,8 +10585,8 @@
       <c r="R55">
         <v>1</v>
       </c>
-      <c r="S55">
-        <v>1</v>
+      <c r="S55" t="s">
+        <v>2</v>
       </c>
       <c r="T55">
         <v>1</v>
@@ -10517,68 +10597,68 @@
       <c r="V55">
         <v>1</v>
       </c>
-      <c r="W55">
-        <v>1</v>
+      <c r="W55" t="s">
+        <v>2</v>
       </c>
       <c r="X55">
         <v>1</v>
       </c>
       <c r="Y55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z55" t="s">
         <v>1</v>
       </c>
       <c r="AA55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB55">
         <v>1</v>
       </c>
       <c r="AC55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD55" t="s">
         <v>1</v>
       </c>
       <c r="AE55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF55">
         <v>1</v>
       </c>
-      <c r="AG55">
-        <v>1</v>
+      <c r="AG55" t="s">
+        <v>2</v>
       </c>
       <c r="AH55">
         <v>1</v>
       </c>
-      <c r="AI55">
-        <v>1</v>
+      <c r="AI55" t="s">
+        <v>2</v>
       </c>
       <c r="AJ55">
         <v>1</v>
       </c>
-      <c r="AK55">
-        <v>1</v>
+      <c r="AK55" t="s">
+        <v>3</v>
       </c>
       <c r="AL55" t="s">
         <v>1</v>
       </c>
       <c r="AM55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN55">
         <v>1</v>
       </c>
-      <c r="AO55">
-        <v>1</v>
+      <c r="AO55" t="s">
+        <v>2</v>
       </c>
       <c r="AP55">
         <v>1</v>
       </c>
-      <c r="AQ55">
-        <v>1</v>
+      <c r="AQ55" t="s">
+        <v>3</v>
       </c>
       <c r="AR55" t="s">
         <v>1</v>
@@ -10590,7 +10670,7 @@
         <v>1</v>
       </c>
       <c r="AU55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV55">
         <v>1</v>
@@ -10607,14 +10687,14 @@
       <c r="AZ55">
         <v>1</v>
       </c>
-      <c r="BA55">
-        <v>1</v>
+      <c r="BA55" t="s">
+        <v>2</v>
       </c>
       <c r="BB55">
         <v>1</v>
       </c>
       <c r="BC55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD55" t="s">
         <v>1</v>
@@ -10625,8 +10705,8 @@
       <c r="BF55" t="s">
         <v>1</v>
       </c>
-      <c r="BG55">
-        <v>1</v>
+      <c r="BG55" t="s">
+        <v>3</v>
       </c>
       <c r="BH55" t="s">
         <v>1</v>
@@ -10827,8 +10907,8 @@
       <c r="B57" t="s">
         <v>1</v>
       </c>
-      <c r="C57">
-        <v>1</v>
+      <c r="C57" t="s">
+        <v>3</v>
       </c>
       <c r="D57" t="s">
         <v>1</v>
@@ -10839,8 +10919,8 @@
       <c r="F57" t="s">
         <v>1</v>
       </c>
-      <c r="G57">
-        <v>1</v>
+      <c r="G57" t="s">
+        <v>3</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -10851,26 +10931,26 @@
       <c r="J57">
         <v>1</v>
       </c>
-      <c r="K57">
-        <v>1</v>
+      <c r="K57" t="s">
+        <v>2</v>
       </c>
       <c r="L57" t="s">
         <v>1</v>
       </c>
       <c r="M57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N57">
         <v>1</v>
       </c>
-      <c r="O57">
-        <v>1</v>
+      <c r="O57" t="s">
+        <v>2</v>
       </c>
       <c r="P57">
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R57" t="s">
         <v>1</v>
@@ -10882,25 +10962,25 @@
         <v>1</v>
       </c>
       <c r="U57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V57">
         <v>1</v>
       </c>
       <c r="W57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X57" t="s">
         <v>1</v>
       </c>
       <c r="Y57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z57">
         <v>1</v>
       </c>
-      <c r="AA57">
-        <v>1</v>
+      <c r="AA57" t="s">
+        <v>3</v>
       </c>
       <c r="AB57" t="s">
         <v>1</v>
@@ -10911,32 +10991,32 @@
       <c r="AD57" t="s">
         <v>1</v>
       </c>
-      <c r="AE57">
-        <v>1</v>
+      <c r="AE57" t="s">
+        <v>3</v>
       </c>
       <c r="AF57" t="s">
         <v>1</v>
       </c>
       <c r="AG57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH57">
         <v>1</v>
       </c>
       <c r="AI57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ57" t="s">
         <v>1</v>
       </c>
       <c r="AK57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL57">
         <v>1</v>
       </c>
       <c r="AM57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN57" t="s">
         <v>1</v>
@@ -10947,62 +11027,62 @@
       <c r="AP57" t="s">
         <v>1</v>
       </c>
-      <c r="AQ57">
-        <v>1</v>
+      <c r="AQ57" t="s">
+        <v>3</v>
       </c>
       <c r="AR57">
         <v>1</v>
       </c>
-      <c r="AS57">
-        <v>1</v>
+      <c r="AS57" t="s">
+        <v>4</v>
       </c>
       <c r="AT57">
         <v>1</v>
       </c>
       <c r="AU57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV57" t="s">
         <v>1</v>
       </c>
       <c r="AW57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX57">
         <v>1</v>
       </c>
       <c r="AY57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ57" t="s">
         <v>1</v>
       </c>
-      <c r="BA57">
-        <v>1</v>
+      <c r="BA57" t="s">
+        <v>3</v>
       </c>
       <c r="BB57" t="s">
         <v>1</v>
       </c>
       <c r="BC57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD57">
         <v>1</v>
       </c>
-      <c r="BE57">
-        <v>1</v>
+      <c r="BE57" t="s">
+        <v>2</v>
       </c>
       <c r="BF57" t="s">
         <v>1</v>
       </c>
-      <c r="BG57">
-        <v>1</v>
+      <c r="BG57" t="s">
+        <v>3</v>
       </c>
       <c r="BH57">
         <v>1</v>
       </c>
       <c r="BI57" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:61" x14ac:dyDescent="0.25">
@@ -11204,7 +11284,7 @@
         <v>1</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -11221,20 +11301,20 @@
       <c r="J59">
         <v>1</v>
       </c>
-      <c r="K59">
-        <v>1</v>
+      <c r="K59" t="s">
+        <v>2</v>
       </c>
       <c r="L59">
         <v>1</v>
       </c>
-      <c r="M59">
-        <v>1</v>
+      <c r="M59" t="s">
+        <v>3</v>
       </c>
       <c r="N59" t="s">
         <v>1</v>
       </c>
-      <c r="O59">
-        <v>1</v>
+      <c r="O59" t="s">
+        <v>3</v>
       </c>
       <c r="P59" t="s">
         <v>1</v>
@@ -11245,20 +11325,20 @@
       <c r="R59" t="s">
         <v>1</v>
       </c>
-      <c r="S59">
-        <v>1</v>
+      <c r="S59" t="s">
+        <v>3</v>
       </c>
       <c r="T59" t="s">
         <v>1</v>
       </c>
-      <c r="U59">
-        <v>1</v>
+      <c r="U59" t="s">
+        <v>3</v>
       </c>
       <c r="V59" t="s">
         <v>1</v>
       </c>
       <c r="W59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X59">
         <v>1</v>
@@ -11276,25 +11356,25 @@
         <v>1</v>
       </c>
       <c r="AC59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD59" t="s">
         <v>1</v>
       </c>
-      <c r="AE59">
-        <v>1</v>
+      <c r="AE59" t="s">
+        <v>2</v>
       </c>
       <c r="AF59">
         <v>1</v>
       </c>
-      <c r="AG59">
-        <v>1</v>
+      <c r="AG59" t="s">
+        <v>3</v>
       </c>
       <c r="AH59" t="s">
         <v>1</v>
       </c>
-      <c r="AI59">
-        <v>1</v>
+      <c r="AI59" t="s">
+        <v>3</v>
       </c>
       <c r="AJ59" t="s">
         <v>1</v>
@@ -11305,44 +11385,41 @@
       <c r="AL59" t="s">
         <v>1</v>
       </c>
-      <c r="AM59">
-        <v>1</v>
+      <c r="AM59" t="s">
+        <v>3</v>
       </c>
       <c r="AN59" t="s">
         <v>1</v>
       </c>
       <c r="AO59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP59">
         <v>1</v>
       </c>
-      <c r="AQ59">
-        <v>1</v>
-      </c>
-      <c r="AR59" t="s">
-        <v>1</v>
-      </c>
-      <c r="AS59">
-        <v>1</v>
+      <c r="AQ59" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS59" t="s">
+        <v>3</v>
       </c>
       <c r="AT59" t="s">
         <v>1</v>
       </c>
       <c r="AU59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV59">
         <v>1</v>
       </c>
       <c r="AW59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX59" t="s">
         <v>1</v>
       </c>
       <c r="AY59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ59">
         <v>1</v>
@@ -11354,19 +11431,19 @@
         <v>1</v>
       </c>
       <c r="BC59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD59" t="s">
         <v>1</v>
       </c>
       <c r="BE59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF59">
         <v>1</v>
       </c>
-      <c r="BG59">
-        <v>1</v>
+      <c r="BG59" t="s">
+        <v>3</v>
       </c>
       <c r="BH59" t="s">
         <v>1</v>
@@ -11561,14 +11638,14 @@
       </c>
     </row>
     <row r="61" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>0</v>
+      <c r="A61">
+        <v>2</v>
       </c>
       <c r="B61" t="s">
         <v>0</v>
       </c>
       <c r="C61" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D61" t="s">
         <v>0</v>
@@ -11610,7 +11687,7 @@
         <v>0</v>
       </c>
       <c r="Q61" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R61" t="s">
         <v>0</v>
@@ -11652,7 +11729,7 @@
         <v>0</v>
       </c>
       <c r="AE61" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF61" t="s">
         <v>0</v>
@@ -11670,13 +11747,13 @@
         <v>0</v>
       </c>
       <c r="AK61" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL61" t="s">
         <v>0</v>
       </c>
       <c r="AM61" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN61" t="s">
         <v>0</v>
@@ -11700,7 +11777,7 @@
         <v>0</v>
       </c>
       <c r="AU61" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV61" t="s">
         <v>0</v>
@@ -11741,17 +11818,29 @@
       <c r="BH61" t="s">
         <v>0</v>
       </c>
-      <c r="BI61" t="s">
-        <v>0</v>
+      <c r="BI61">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:BI61">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",A1)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="t">
+      <formula>NOT(ISERROR(SEARCH("t",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="e">
+      <formula>NOT(ISERROR(SEARCH("e",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="c">
+      <formula>NOT(ISERROR(SEARCH("c",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
